--- a/Base/Teams/Raiders/2021 Team Data.xlsx
+++ b/Base/Teams/Raiders/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8</t>
-  </si>
-  <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4</t>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7</t>
+  </si>
+  <si>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11</t>
   </si>
   <si>
-    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15</t>
-  </si>
-  <si>
-    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7</t>
+    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24</t>
+  </si>
+  <si>
+    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -695,10 +695,10 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="M2">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="Q2">
-        <v>378</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
+        <v>40</v>
+      </c>
+      <c r="J3">
         <v>39</v>
-      </c>
-      <c r="J3">
-        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>121</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -952,28 +952,28 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="M2">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="N2">
         <v>13</v>
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="Q2">
-        <v>411</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>26</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>134</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,16 +1233,16 @@
         <v>126</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2">
         <v>33</v>
@@ -1251,10 +1251,10 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Raiders/2021 Team Data.xlsx
+++ b/Base/Teams/Raiders/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7</t>
-  </si>
-  <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6</t>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4</t>
+  </si>
+  <si>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63</t>
-  </si>
-  <si>
-    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11</t>
-  </si>
-  <si>
-    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24</t>
-  </si>
-  <si>
-    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0</t>
+    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66</t>
+  </si>
+  <si>
+    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24</t>
+  </si>
+  <si>
+    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29</t>
+  </si>
+  <si>
+    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <v>46</v>
@@ -701,13 +701,13 @@
         <v>185</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>436</v>
@@ -721,37 +721,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="M3">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>314</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>160</v>
       </c>
       <c r="N2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O2">
         <v>19</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>327</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -1215,19 +1215,19 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2">
         <v>126</v>
@@ -1239,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2">
         <v>33</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/2021 Team Data.xlsx
+++ b/Base/Teams/Raiders/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4</t>
-  </si>
-  <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1</t>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15</t>
+  </si>
+  <si>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66</t>
-  </si>
-  <si>
-    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24</t>
-  </si>
-  <si>
-    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29</t>
-  </si>
-  <si>
-    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6</t>
+    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62</t>
+  </si>
+  <si>
+    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24</t>
+  </si>
+  <si>
+    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23</t>
+  </si>
+  <si>
+    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>185</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2">
         <v>436</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="M3">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>362</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>61</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>16</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
         <v>478</v>
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1005,28 +1005,28 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="M3">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>389</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/2021 Team Data.xlsx
+++ b/Base/Teams/Raiders/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15</t>
-  </si>
-  <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6</t>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28</t>
+  </si>
+  <si>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62</t>
-  </si>
-  <si>
-    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24</t>
-  </si>
-  <si>
-    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23</t>
-  </si>
-  <si>
-    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2</t>
+    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58</t>
+  </si>
+  <si>
+    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18</t>
+  </si>
+  <si>
+    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23</t>
+  </si>
+  <si>
+    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,28 +689,28 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="M2">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>436</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,7 +721,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -730,19 +730,19 @@
         <v>33</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>168</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="M2">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>478</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>33</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J3">
         <v>47</v>
@@ -1029,7 +1029,7 @@
         <v>174</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1245,10 +1245,10 @@
         <v>63</v>
       </c>
       <c r="L2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/2021 Team Data.xlsx
+++ b/Base/Teams/Raiders/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28</t>
-  </si>
-  <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8</t>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24</t>
+  </si>
+  <si>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58</t>
-  </si>
-  <si>
-    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18</t>
-  </si>
-  <si>
-    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23</t>
-  </si>
-  <si>
-    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0</t>
+    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58 58 57</t>
+  </si>
+  <si>
+    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18 20 0</t>
+  </si>
+  <si>
+    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23 34 9</t>
+  </si>
+  <si>
+    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47 44 60</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0 7 41 0 0 16</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>205</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>500</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M3">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>431</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>175</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>520</v>
@@ -996,37 +996,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="M3">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="N3">
         <v>15</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>444</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N2">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Raiders/2021 Team Data.xlsx
+++ b/Base/Teams/Raiders/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24</t>
-  </si>
-  <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3</t>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 2 1 5 3 -1 5 4 0 2 2 10 1 2 0 6 2 1 3 0 3 11 3 8 6 5 0 5 -1 5 5 4 2 7 1 1 0 1 1 8 1 4 6 2 6 4 3 9 3 6 18 6 2 0 1 3 1 5 3 1 3 0 1 5 1 2 3 12 9 4 3 9 4 8 -3 6 11 11 4 1 5 1 2 7 7 5 1 3 1 1 11 6 13 3 0 13 3 7 2 1 14 4 1 0 3 4 21 2 3 3 5 3 3 1 -1 12 2 -1 9 2 1 3 8 3 6 4 5 1 7 4 1 4 3 2 4 5 0 18 -4 7 2 3 2 2 4 1 3 0 9 4 1 2 3 0 10 5 5 4 -4 6 6 3 22 2 4 4 4 2 4 5 21 -1 0 4 4 3 7 1 3 0 17 7 3 15 -1 6 2 1 1 10 1 -3 5 1 4 3 4 1 5 3 2 -2 1 3 19 7 6 3 3 6 3 5 8 6 3 3 0 1 6 2 9 4 1 -3 3 3 7 4 6 5 3 3 -2 0 -4 8 7 3 8 19 4 8 5 5 4 8 -4 3 0 4 4 4 10 6 0 4 13 3 5 6 2 6 4 6 9 2 9 0 0 2 -4 1 -1 3 5 4 4 8 3 2 1 1 2 5 2 8 0 0 -3 14 -2 3 1 1 -2 0 23 1 2 7 5 3 15 2 1 0 11 7 5 8 -4 28 18 0 7 -1 7 10 5 3 1 2 2 14 35 2 20 -1 0 8 7 5</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 4 3 12 5 21 7 0 15 8 8 5 10 9 18 3 51 5 5 4 3 12 8 29 9 29 4 4 9 6 17 5 6 18 3 2 4 6 3 12 7 10 9 48 2 3 25 11 16 6 8 8 10 33 31 29 3 40 8 51 12 4 43 -1 16 2 8 13 0 6 18 18 8 10 10 6 20 7 6 5 4 21 7 9 10 24 5 -1 29 3 6 6 20 6 2 8 3 7 8 10 20 7 2 15 9 5 9 20 24 22 11 2 3 12 3 19 9 17 8 3 6 5 1 4 3 27 3 6 7 5 22 37 24 40 11 5 5 7 9 6 12 3 15 -2 -2 25 6 8 6 21 4 1 9 2 25 31 19 7 8 20 9 8 8 12 56 5 12 12 21 17 13 31 3 11 -1 4 35 10 -5 16 54 9 9 4 30 7 8 1 8 9 3 10 5 3 9 7 5 0 18 10 -5 5 2 15 9 34 7 3 28 14 13 16 2 11 7 7 8 9 16 14 2 7 19 7 2 5 7 13 10 6 4 6 4 19 19 6 4 -1 12 14 11 17 12 7 5 5 10 5 13 8 6 16 14 16 12 6 7 3 12 9 12 15 8 5 16 18 6 4 0 15 10 20 -5 5 7 13 12 12 18 6 3 28 14 5 7 3 11 -2 11 4 26 12 5 4 5 19 13 7 42 2 5 9 4 14 24 8 44 0 4 12 12 18 4 4 30 6 2 -1 8 0 7 17 -5 11 17 6 8 9 13 7 6 7 19 4 11 14 12 6 9 16 7 5 16 3 3 13 5 13 7 15 23 10</t>
+  </si>
+  <si>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 7 -1 18 -1 0 3 5 21 5 3 -3 8 2 11 6 4 8 0 2 2 4 1 7 6 9 1 6 11 20 4 3 -2 6 1 1 3 0 5 11 14 0 0 6 8 9 3 3 9 7 0 4 8 8 1 0 0 6 2 0 7 1 6 6 5 0 1 0 1 1 10 1 9 3 11 3 4 0 3 0 5 8 4 0 30 4 2 4 4 1 1 0 6 3 5 9 7 1 5 7 5 2 7 1 4 3 4 22 5 8 5 0 6 0 0 6 4 1 16 4 2 1 5 6 4 16 5 5 6 2 -2 2 6 1 6 20 5 2 3 5 2 0 5 7 5 2 3 8 -3 4 11 12 2 5 0 5 1 3 21 1 3 2 0 6 -1 5 3 2 6 -1 4 4 4 3 2 6 4 14 4 5 1 3 -2 -3 1 -2 10 -1 11 2 5 4 8 -2 18 5 2 6 4 -5 2 1 19 4 0 1 3 7 20 1 0 1 4 2 5 8 1 3 5 2 1 4 3 2 3 8 3 1 12 -5 1 1 22 1 3 1 16 2 6 2 2 4 1 9 5 -4 -3 13 4 1 0 -6 7 2 3 8 1 6 0 4 3 2 1 2 7 5 7 0 3 1 0 0 1 4 9 6 4 2 10 4 2 -2 2 4 2 5 2 4 -7 -2 8 1 4 4 -1 2 4 24 2 4 1 1 6 4 3 12 2 6 2 5 0 4 5 1 1 1 3 1 3 -4 1 -3 1 3 0 -4 5 3 -3 4 6 4 18 24 3 0 1 1 14 2 0 4 9 -1 2 8 5 7 1 4 3 1 3 1 9 2 2 14 1 2 14 11 8 6 -1 2 -3 6 0 7 -1 4 3 4 3 5 2 5 7 2 4 -1 9 1 10 5 4 2 2 2 3 0 -2 1</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 4 22 7 7 4 3 5 5 11 34 0 10 2 9 4 7 13 9 14 9 15 4 4 18 7 2 2 15 8 12 8 9 7 13 14 7 14 23 5 1 3 6 11 7 5 7 10 14 3 14 11 6 10 5 7 26 13 12 12 12 26 6 18 16 6 4 4 1 6 24 13 8 -3 20 27 25 15 20 7 5 6 17 10 8 7 6 9 5 30 6 12 7 -7 14 3 14 2 9 1 -1 6 6 7 5 11 22 19 8 8 7 13 12 -1 16 27 3 1 0 9 7 11 7 13 17 2 10 16 32 3 7 3 38 8 30 22 3 6 3 2 7 14 9 14 3 7 6 4 17 7 3 7 9 9 12 6 1 6 15 17 10 10 9 4 51 5 13 5 7 7 15 7 41 12 7 6 5 4 32 32 11 5 3 17 10 2 2 4 23 -1 13 6 7 4 7 6 5 6 5 6 0 10 35 10 3 4 10 9 10 12 6 6 44 23 10 19 19 28 7 9 3 1 7 38 15 5 -3 2 8 16 1 5 10 6 6 2 4 3 4 4 9 13 6 6 13 5 25 11 3 6 5 2 7 1 40 4 14 6 8 20 5 13 4 8 8 5 17 7 6 8 4 12 7 45 5 3 12 6 0 3 3 5 5 14 19 6 10 6 6 13 14 7 42 2 3 6 5 9 18 1 6 14 4 14 10 17 12 6 11 17 9 21 7 -1 28 5 5 29 5 10 5 9 7 9 5 7 3 19 11 10 6 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58 58 57</t>
-  </si>
-  <si>
-    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18 20 0</t>
-  </si>
-  <si>
-    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23 34 9</t>
-  </si>
-  <si>
-    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47 44 60</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0 7 41 0 0 16</t>
+    <t>61 61 69 66 56 62 61 61 69 63 62 65 60 66 58 65 58 65 63 61 62 59 67 65 63 66 62 58 58 57 66 59 54 57 63 64</t>
+  </si>
+  <si>
+    <t>28 18 28 18 15 24 11 24 32 13 13 18 12 23 26 23 18 18 20 14 25 32 18 0 11 24 24 18 20 0 24 23 14 27 23 25</t>
+  </si>
+  <si>
+    <t>13 20 22 15 25 15 31 22 15 15 20 14 26 32 22 20 23 19 18 19 12 25 15 19 24 28 16 29 14 23 23 34 9 18 22 0 35 16 22</t>
+  </si>
+  <si>
+    <t>35 63 67 64 37 55 40 50 45 55 49 45 67 54 45 49 56 52 68 39 70 47 66 71 54 37 59 35 42 58 40 61 42 44 63 37 47 54 48 68 32 53 36 54 42 67 38 55 44 60 46 42 49 41 45 38 47 44 60 46 33 48 54 58 41</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 15 0 0 15 8 0 7 12 11 0 0 9 0 17 0 21 0 0 0 0 0 6 0 12 14 0 37 0 9 0 0 0 0 15 2 0 0 0 14 0 16 0 13 0 0 11 20 0 0 0 0 0 0 0 4 0 0 11 14 12</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 10 0 16 7 0 2 0 0 17 0 5 6 0 0 0 0 9 0 5 0 0 0 0 15 0 0 5 0 12 11 21 0 0 0 0 9 7 6 0 0 0 6 29 0 0 0 2 0 0 6 0 0 7 41 0 0 16 10 9 13 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>68</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>52</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M2">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q2">
-        <v>500</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,43 +718,43 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="M3">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>494</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,28 +964,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="M2">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
         <v>22</v>
       </c>
-      <c r="P2">
-        <v>15</v>
-      </c>
       <c r="Q2">
-        <v>520</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,43 +993,43 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M3">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -1215,46 +1215,46 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,10 +1348,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
